--- a/tp1_fisica/estudio_aceleraciones_M150_papel.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_M150_papel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>m</t>
   </si>
@@ -22,9 +22,6 @@
     <t>t, arduino</t>
   </si>
   <si>
-    <t>750,1159.00</t>
-  </si>
-  <si>
     <t>1000,1158.00</t>
   </si>
   <si>
@@ -37,12 +34,6 @@
     <t>1750,2900.00</t>
   </si>
   <si>
-    <t>2000,2877.00</t>
-  </si>
-  <si>
-    <t>2250,3090.00</t>
-  </si>
-  <si>
     <t>750,1214.00</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
   </si>
   <si>
     <t>2000,3019.00</t>
-  </si>
-  <si>
-    <t>500,1177.00</t>
   </si>
   <si>
     <t>750,1177.00</t>
@@ -388,8 +376,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B6" s="3">
+        <f>22.07+22.15+22.29 + 111.03</f>
+        <v>177.54</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -409,13 +402,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B9" s="3">
-        <f>22.07+22.15+22.29 + 111.03</f>
-        <v>177.54</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
@@ -435,8 +423,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2">
+        <v>71.6</v>
+      </c>
+      <c r="B12" s="3">
+        <f>22.29+ 22.07+ 22.15+ 5.36 + 111.03</f>
+        <v>182.9</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -456,13 +449,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
-        <v>71.6</v>
-      </c>
-      <c r="B15" s="3">
-        <f>22.29+ 22.07+ 22.15+ 5.36 + 111.03</f>
-        <v>182.9</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
@@ -474,34 +462,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
